--- a/src/main/resources/water_analysis_format.xlsx
+++ b/src/main/resources/water_analysis_format.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\new\Desktop\year 3 sem 1\פרויקט\Final-Project-Maven\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Eviatar\IdeaProjects\Final-Project-Maven\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F015F1D3-8BC4-4BD0-B6AE-2FEFDEFC449E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="water analysis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>UOM</t>
   </si>
@@ -128,12 +129,36 @@
   </si>
   <si>
     <t>Irrigation_block_ID</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>dS/m</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>CFU/ml</t>
+  </si>
+  <si>
+    <t>Irrigation</t>
+  </si>
+  <si>
+    <t>previous</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,6 +218,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -508,10 +539,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -540,159 +573,351 @@
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B2" s="5">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B4" s="2">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B5" s="4">
+        <v>43235</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B9" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B10" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="B11" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="B13" s="2">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>48</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{B029DCD2-1293-47E4-A9CA-2DEEFB2EFB59}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -701,7 +926,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E7F5E094DC5E2948848481730747906E" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e2ee9f7bc6b98ccdfe56e2ead30eeb8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="766aba29-3875-45b2-af99-ed533f892980" xmlns:ns3="aa781d43-3968-4c36-8c04-92512332ecb8" xmlns:ns4="5144a9a3-a2b0-4147-97d3-94d65b917612" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4729878b84af48a8c52b489a8c554d66" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -920,16 +1145,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5E4B4E5-4FB0-4DD6-A95C-DC635ED5DF0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="766aba29-3875-45b2-af99-ed533f892980"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa781d43-3968-4c36-8c04-92512332ecb8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5144a9a3-a2b0-4147-97d3-94d65b917612"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C030DB9-7096-45FC-9C50-E61F30C238BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -937,7 +1172,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC88DF9A-5CBD-4A06-A933-7CDFE52F4587}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -956,23 +1191,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5E4B4E5-4FB0-4DD6-A95C-DC635ED5DF0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="766aba29-3875-45b2-af99-ed533f892980"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa781d43-3968-4c36-8c04-92512332ecb8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5144a9a3-a2b0-4147-97d3-94d65b917612"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/main/resources/water_analysis_format.xlsx
+++ b/src/main/resources/water_analysis_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Eviatar\IdeaProjects\Final-Project-Maven\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F015F1D3-8BC4-4BD0-B6AE-2FEFDEFC449E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1722C4D3-047E-4CBF-B43A-52182BE1996A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="5">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -909,24 +909,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E7F5E094DC5E2948848481730747906E" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e2ee9f7bc6b98ccdfe56e2ead30eeb8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="766aba29-3875-45b2-af99-ed533f892980" xmlns:ns3="aa781d43-3968-4c36-8c04-92512332ecb8" xmlns:ns4="5144a9a3-a2b0-4147-97d3-94d65b917612" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4729878b84af48a8c52b489a8c554d66" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1145,34 +1127,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5E4B4E5-4FB0-4DD6-A95C-DC635ED5DF0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="766aba29-3875-45b2-af99-ed533f892980"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa781d43-3968-4c36-8c04-92512332ecb8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5144a9a3-a2b0-4147-97d3-94d65b917612"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C030DB9-7096-45FC-9C50-E61F30C238BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC88DF9A-5CBD-4A06-A933-7CDFE52F4587}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1191,4 +1164,31 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C030DB9-7096-45FC-9C50-E61F30C238BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5E4B4E5-4FB0-4DD6-A95C-DC635ED5DF0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="766aba29-3875-45b2-af99-ed533f892980"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa781d43-3968-4c36-8c04-92512332ecb8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5144a9a3-a2b0-4147-97d3-94d65b917612"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/main/resources/water_analysis_format.xlsx
+++ b/src/main/resources/water_analysis_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Eviatar\IdeaProjects\Final-Project-Maven\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1722C4D3-047E-4CBF-B43A-52182BE1996A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1A5DF7-1658-4CD5-89CB-5268B7EBE1E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="5">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -671,7 +671,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="2">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>37</v>
@@ -1128,21 +1128,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1167,14 +1167,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C030DB9-7096-45FC-9C50-E61F30C238BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5E4B4E5-4FB0-4DD6-A95C-DC635ED5DF0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1191,4 +1183,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C030DB9-7096-45FC-9C50-E61F30C238BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/main/resources/water_analysis_format.xlsx
+++ b/src/main/resources/water_analysis_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Eviatar\IdeaProjects\Final-Project-Maven\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1A5DF7-1658-4CD5-89CB-5268B7EBE1E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39077B0-698F-4A7A-9508-71F14690B1E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>34</v>
@@ -909,6 +909,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E7F5E094DC5E2948848481730747906E" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e2ee9f7bc6b98ccdfe56e2ead30eeb8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="766aba29-3875-45b2-af99-ed533f892980" xmlns:ns3="aa781d43-3968-4c36-8c04-92512332ecb8" xmlns:ns4="5144a9a3-a2b0-4147-97d3-94d65b917612" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4729878b84af48a8c52b489a8c554d66" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1127,41 +1145,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC88DF9A-5CBD-4A06-A933-7CDFE52F4587}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C030DB9-7096-45FC-9C50-E61F30C238BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="766aba29-3875-45b2-af99-ed533f892980"/>
-    <ds:schemaRef ds:uri="aa781d43-3968-4c36-8c04-92512332ecb8"/>
-    <ds:schemaRef ds:uri="5144a9a3-a2b0-4147-97d3-94d65b917612"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1186,9 +1173,22 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C030DB9-7096-45FC-9C50-E61F30C238BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC88DF9A-5CBD-4A06-A933-7CDFE52F4587}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="766aba29-3875-45b2-af99-ed533f892980"/>
+    <ds:schemaRef ds:uri="aa781d43-3968-4c36-8c04-92512332ecb8"/>
+    <ds:schemaRef ds:uri="5144a9a3-a2b0-4147-97d3-94d65b917612"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>